--- a/biology/Zoologie/Crotalus_willardi/Crotalus_willardi.xlsx
+++ b/biology/Zoologie/Crotalus_willardi/Crotalus_willardi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus willardi est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus willardi est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Crotalus willardi mesure entre 30 et 60 cm. Il est généralement brun ou gris plus ou moins sombre avec des lignes claires, mais il existe de grandes différences entre les individus, en particulier entre les sous-espèces.
 </t>
@@ -542,10 +556,12 @@
           <t>Biologie et mœurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent qui pratique surtout la chasse en embuscade. Il se nourrit de petits mammifères, lézards, oiseaux ou encore d'arthropodes (principalement les juvéniles)[2].
-C'est un serpent ovovivipare venimeux. La copulation a lieu à la fin de l'été ou au début de l'automne, et la gestation dure entre 4 et 5 mois. Les femelles donnent naissance de 2 à 9 petits (en moyenne 5) fin juillet ou en août. La maturité sexuelle est atteinte à une taille d'environ 40 cm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent qui pratique surtout la chasse en embuscade. Il se nourrit de petits mammifères, lézards, oiseaux ou encore d'arthropodes (principalement les juvéniles).
+C'est un serpent ovovivipare venimeux. La copulation a lieu à la fin de l'été ou au début de l'automne, et la gestation dure entre 4 et 5 mois. Les femelles donnent naissance de 2 à 9 petits (en moyenne 5) fin juillet ou en août. La maturité sexuelle est atteinte à une taille d'environ 40 cm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 aux États-Unis, dans le sud-est de l'Arizona et dans le sud-est du Nouveau-Mexique ;
 au Mexique, dans les États de Sonora, de Chihuahua et de Durango.
 Elle vit principalement en altitude, chaque sous-espèce étant souvent restreinte à une zone montagneuse spécifique.
@@ -608,9 +626,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (18 novembre 2015)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (18 novembre 2015) :
 Crotalus willardi amabilis Anderson, 1962
 Crotalus willardi meridionalis Klauber, 1949
 Crotalus willardi obscurus Harris, 1974
@@ -643,7 +663,9 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est venimeuse. Toutefois de par sa petite taille la quantité de venin injecté est faible. Malgré ses caractéristiques hémotoxiques cette faible quantité ne met pas en danger un humain mordu (aucun cas de décès référencé), même si de fortes douleurs sont constatées à la suite des rares morsures de ce serpent.
 </t>
@@ -674,9 +696,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce a été nommé en l'honneur du professeur Francis Cottle Willard (1874–1930), de Tombstone en Arizona, qui a collecté l'holotype[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce a été nommé en l'honneur du professeur Francis Cottle Willard (1874–1930), de Tombstone en Arizona, qui a collecté l'holotype.
 </t>
         </is>
       </c>
